--- a/trunk/贵金属数据/银/现货白银年线 1989.xlsx
+++ b/trunk/贵金属数据/银/现货白银年线 1989.xlsx
@@ -463,7 +463,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J26"/>
+      <selection activeCell="A26" sqref="A26:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -502,386 +502,353 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>20131231</v>
+        <v>19891231</v>
       </c>
       <c r="B2">
-        <v>30.32</v>
+        <v>5.25</v>
       </c>
       <c r="C2">
-        <v>32.46</v>
+        <v>5.98</v>
       </c>
       <c r="D2">
-        <v>18.2</v>
+        <v>5.2</v>
       </c>
       <c r="E2">
-        <v>21.1</v>
+        <v>5.27</v>
       </c>
       <c r="F2">
-        <v>1802890</v>
+        <v>964718</v>
       </c>
       <c r="G2">
-        <v>43037756</v>
+        <v>3787104</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-9.2200000000000006</v>
+        <v>0.02</v>
       </c>
       <c r="J2" s="1">
-        <v>-0.30409999999999998</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>20121231</v>
+        <v>19901231</v>
       </c>
       <c r="B3">
-        <v>27.85</v>
+        <v>5.23</v>
       </c>
       <c r="C3">
-        <v>37.479999999999997</v>
+        <v>5.5</v>
       </c>
       <c r="D3">
-        <v>26.11</v>
+        <v>3.93</v>
       </c>
       <c r="E3">
-        <v>30.27</v>
+        <v>4.21</v>
       </c>
       <c r="F3">
-        <v>1653877</v>
+        <v>1706936</v>
       </c>
       <c r="G3">
-        <v>51749140</v>
+        <v>10404742</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.42</v>
+        <v>-1.02</v>
       </c>
       <c r="J3" s="1">
-        <v>8.6900000000000005E-2</v>
+        <v>-0.19500000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>20111231</v>
+        <v>19911231</v>
       </c>
       <c r="B4">
-        <v>30.88</v>
+        <v>4.21</v>
       </c>
       <c r="C4">
-        <v>49.83</v>
+        <v>4.62</v>
       </c>
       <c r="D4">
-        <v>26.04</v>
+        <v>3.51</v>
       </c>
       <c r="E4">
-        <v>27.82</v>
-      </c>
-      <c r="F4">
-        <v>6040704</v>
-      </c>
-      <c r="G4">
-        <v>213534512</v>
+        <v>3.87</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-3.06</v>
+        <v>-0.34</v>
       </c>
       <c r="J4" s="1">
-        <v>-9.9099999999999994E-2</v>
+        <v>-8.0799999999999997E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>20101231</v>
+        <v>19921231</v>
       </c>
       <c r="B5">
-        <v>16.86</v>
+        <v>3.9</v>
       </c>
       <c r="C5">
-        <v>30.92</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="D5">
-        <v>14.66</v>
+        <v>3.63</v>
       </c>
       <c r="E5">
-        <v>30.82</v>
-      </c>
-      <c r="F5">
-        <v>4247748</v>
-      </c>
-      <c r="G5">
-        <v>79404672</v>
+        <v>3.68</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.96</v>
+        <v>-0.22</v>
       </c>
       <c r="J5" s="1">
-        <v>0.82799999999999996</v>
+        <v>-5.6399999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>20091231</v>
+        <v>19931231</v>
       </c>
       <c r="B6">
-        <v>11.38</v>
+        <v>3.68</v>
       </c>
       <c r="C6">
-        <v>19.239999999999998</v>
+        <v>5.49</v>
       </c>
       <c r="D6">
-        <v>10.53</v>
+        <v>3.53</v>
       </c>
       <c r="E6">
-        <v>16.84</v>
-      </c>
-      <c r="F6">
-        <v>5860074</v>
-      </c>
-      <c r="G6">
-        <v>87334400</v>
+        <v>5.09</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5.46</v>
+        <v>1.41</v>
       </c>
       <c r="J6" s="1">
-        <v>0.4798</v>
+        <v>0.38319999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>20081231</v>
+        <v>19941231</v>
       </c>
       <c r="B7">
-        <v>14.77</v>
+        <v>5.09</v>
       </c>
       <c r="C7">
-        <v>21.24</v>
+        <v>5.85</v>
       </c>
       <c r="D7">
-        <v>8.4499999999999993</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="E7">
-        <v>11.32</v>
-      </c>
-      <c r="F7">
-        <v>3226361</v>
+        <v>4.88</v>
       </c>
       <c r="G7">
-        <v>42094376</v>
+        <v>2316252</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-3.45</v>
+        <v>-0.21</v>
       </c>
       <c r="J7" s="1">
-        <v>-0.2336</v>
+        <v>-4.1300000000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>20071231</v>
+        <v>19951231</v>
       </c>
       <c r="B8">
-        <v>12.84</v>
+        <v>4.83</v>
       </c>
       <c r="C8">
-        <v>16.2</v>
+        <v>6.14</v>
       </c>
       <c r="D8">
-        <v>11.03</v>
+        <v>4.33</v>
       </c>
       <c r="E8">
-        <v>14.78</v>
-      </c>
-      <c r="F8">
-        <v>864890</v>
+        <v>5.15</v>
       </c>
       <c r="G8">
-        <v>11497818</v>
+        <v>1686942</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.94</v>
+        <v>0.32</v>
       </c>
       <c r="J8" s="1">
-        <v>0.15110000000000001</v>
+        <v>6.6299999999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>20061231</v>
+        <v>19961231</v>
       </c>
       <c r="B9">
-        <v>8.81</v>
+        <v>5.18</v>
       </c>
       <c r="C9">
-        <v>15.22</v>
+        <v>5.87</v>
       </c>
       <c r="D9">
-        <v>8.68</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="E9">
-        <v>12.85</v>
-      </c>
-      <c r="F9">
-        <v>884668</v>
-      </c>
-      <c r="G9">
-        <v>7047290</v>
+        <v>4.78</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>4.04</v>
+        <v>-0.4</v>
       </c>
       <c r="J9" s="1">
-        <v>0.45860000000000001</v>
+        <v>-7.7200000000000005E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>20051231</v>
+        <v>19971231</v>
       </c>
       <c r="B10">
-        <v>6.76</v>
+        <v>4.76</v>
       </c>
       <c r="C10">
-        <v>9.23</v>
+        <v>6.4</v>
       </c>
       <c r="D10">
-        <v>6.22</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E10">
-        <v>8.8000000000000007</v>
+        <v>5.99</v>
       </c>
       <c r="F10">
-        <v>685728</v>
-      </c>
-      <c r="G10">
-        <v>2733395</v>
+        <v>54339</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.04</v>
+        <v>1.23</v>
       </c>
       <c r="J10" s="1">
-        <v>0.30180000000000001</v>
+        <v>0.25840000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>20041231</v>
+        <v>19981231</v>
       </c>
       <c r="B11">
-        <v>5.93</v>
+        <v>5.91</v>
       </c>
       <c r="C11">
-        <v>8.44</v>
+        <v>7.9</v>
       </c>
       <c r="D11">
-        <v>5.43</v>
+        <v>4.55</v>
       </c>
       <c r="E11">
-        <v>6.79</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="F11">
-        <v>218362</v>
+        <v>143948</v>
       </c>
       <c r="G11">
-        <v>1117011</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.86</v>
+        <v>-0.89</v>
       </c>
       <c r="J11" s="1">
-        <v>0.14499999999999999</v>
+        <v>-0.15060000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>20031231</v>
+        <v>19991231</v>
       </c>
       <c r="B12">
-        <v>4.7699999999999996</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>5.93</v>
       </c>
       <c r="D12">
-        <v>4.34</v>
+        <v>4.75</v>
       </c>
       <c r="E12">
-        <v>5.91</v>
+        <v>5.4</v>
       </c>
       <c r="F12">
-        <v>138646</v>
+        <v>330264</v>
       </c>
       <c r="G12">
-        <v>231264</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.1399999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="J12" s="1">
-        <v>0.23899999999999999</v>
+        <v>7.5700000000000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>20021231</v>
+        <v>20001231</v>
       </c>
       <c r="B13">
-        <v>4.62</v>
+        <v>5.39</v>
       </c>
       <c r="C13">
-        <v>5.15</v>
+        <v>5.55</v>
       </c>
       <c r="D13">
-        <v>4.12</v>
+        <v>4.54</v>
       </c>
       <c r="E13">
-        <v>4.7699999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F13">
-        <v>52654</v>
+        <v>286519</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.15</v>
+        <v>-0.79</v>
       </c>
       <c r="J13" s="1">
-        <v>3.2500000000000001E-2</v>
+        <v>-0.14660000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -918,356 +885,392 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>20001231</v>
+        <v>20021231</v>
       </c>
       <c r="B15">
-        <v>5.39</v>
+        <v>4.62</v>
       </c>
       <c r="C15">
-        <v>5.55</v>
+        <v>5.15</v>
       </c>
       <c r="D15">
-        <v>4.54</v>
+        <v>4.12</v>
       </c>
       <c r="E15">
-        <v>4.5999999999999996</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="F15">
-        <v>286519</v>
+        <v>52654</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>-0.79</v>
+        <v>0.15</v>
       </c>
       <c r="J15" s="1">
-        <v>-0.14660000000000001</v>
+        <v>3.2500000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>19991231</v>
+        <v>20031231</v>
       </c>
       <c r="B16">
-        <v>5.0199999999999996</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="C16">
-        <v>5.93</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>4.75</v>
+        <v>4.34</v>
       </c>
       <c r="E16">
-        <v>5.4</v>
+        <v>5.91</v>
       </c>
       <c r="F16">
-        <v>330264</v>
+        <v>138646</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>231264</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.38</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>7.5700000000000003E-2</v>
+        <v>0.23899999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>19981231</v>
+        <v>20041231</v>
       </c>
       <c r="B17">
-        <v>5.91</v>
+        <v>5.93</v>
       </c>
       <c r="C17">
-        <v>7.9</v>
+        <v>8.44</v>
       </c>
       <c r="D17">
-        <v>4.55</v>
+        <v>5.43</v>
       </c>
       <c r="E17">
-        <v>5.0199999999999996</v>
+        <v>6.79</v>
       </c>
       <c r="F17">
-        <v>143948</v>
+        <v>218362</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>1117011</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>-0.89</v>
+        <v>0.86</v>
       </c>
       <c r="J17" s="1">
-        <v>-0.15060000000000001</v>
+        <v>0.14499999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>19971231</v>
+        <v>20051231</v>
       </c>
       <c r="B18">
-        <v>4.76</v>
+        <v>6.76</v>
       </c>
       <c r="C18">
-        <v>6.4</v>
+        <v>9.23</v>
       </c>
       <c r="D18">
-        <v>4.0999999999999996</v>
+        <v>6.22</v>
       </c>
       <c r="E18">
-        <v>5.99</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F18">
-        <v>54339</v>
+        <v>685728</v>
+      </c>
+      <c r="G18">
+        <v>2733395</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.23</v>
+        <v>2.04</v>
       </c>
       <c r="J18" s="1">
-        <v>0.25840000000000002</v>
+        <v>0.30180000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>19961231</v>
+        <v>20061231</v>
       </c>
       <c r="B19">
-        <v>5.18</v>
+        <v>8.81</v>
       </c>
       <c r="C19">
-        <v>5.87</v>
+        <v>15.22</v>
       </c>
       <c r="D19">
-        <v>4.2699999999999996</v>
+        <v>8.68</v>
       </c>
       <c r="E19">
-        <v>4.78</v>
+        <v>12.85</v>
+      </c>
+      <c r="F19">
+        <v>884668</v>
+      </c>
+      <c r="G19">
+        <v>7047290</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>-0.4</v>
+        <v>4.04</v>
       </c>
       <c r="J19" s="1">
-        <v>-7.7200000000000005E-2</v>
+        <v>0.45860000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>19951231</v>
+        <v>20071231</v>
       </c>
       <c r="B20">
-        <v>4.83</v>
+        <v>12.84</v>
       </c>
       <c r="C20">
-        <v>6.14</v>
+        <v>16.2</v>
       </c>
       <c r="D20">
-        <v>4.33</v>
+        <v>11.03</v>
       </c>
       <c r="E20">
-        <v>5.15</v>
+        <v>14.78</v>
+      </c>
+      <c r="F20">
+        <v>864890</v>
       </c>
       <c r="G20">
-        <v>1686942</v>
+        <v>11497818</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.32</v>
+        <v>1.94</v>
       </c>
       <c r="J20" s="1">
-        <v>6.6299999999999998E-2</v>
+        <v>0.15110000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>19941231</v>
+        <v>20081231</v>
       </c>
       <c r="B21">
-        <v>5.09</v>
+        <v>14.77</v>
       </c>
       <c r="C21">
-        <v>5.85</v>
+        <v>21.24</v>
       </c>
       <c r="D21">
-        <v>4.5199999999999996</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="E21">
-        <v>4.88</v>
+        <v>11.32</v>
+      </c>
+      <c r="F21">
+        <v>3226361</v>
       </c>
       <c r="G21">
-        <v>2316252</v>
+        <v>42094376</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>-0.21</v>
+        <v>-3.45</v>
       </c>
       <c r="J21" s="1">
-        <v>-4.1300000000000003E-2</v>
+        <v>-0.2336</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>19931231</v>
+        <v>20091231</v>
       </c>
       <c r="B22">
-        <v>3.68</v>
+        <v>11.38</v>
       </c>
       <c r="C22">
-        <v>5.49</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="D22">
-        <v>3.53</v>
+        <v>10.53</v>
       </c>
       <c r="E22">
-        <v>5.09</v>
+        <v>16.84</v>
+      </c>
+      <c r="F22">
+        <v>5860074</v>
+      </c>
+      <c r="G22">
+        <v>87334400</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.41</v>
+        <v>5.46</v>
       </c>
       <c r="J22" s="1">
-        <v>0.38319999999999999</v>
+        <v>0.4798</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>19921231</v>
+        <v>20101231</v>
       </c>
       <c r="B23">
-        <v>3.9</v>
+        <v>16.86</v>
       </c>
       <c r="C23">
-        <v>4.3899999999999997</v>
+        <v>30.92</v>
       </c>
       <c r="D23">
-        <v>3.63</v>
+        <v>14.66</v>
       </c>
       <c r="E23">
-        <v>3.68</v>
+        <v>30.82</v>
+      </c>
+      <c r="F23">
+        <v>4247748</v>
+      </c>
+      <c r="G23">
+        <v>79404672</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>-0.22</v>
+        <v>13.96</v>
       </c>
       <c r="J23" s="1">
-        <v>-5.6399999999999999E-2</v>
+        <v>0.82799999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>19911231</v>
+        <v>20111231</v>
       </c>
       <c r="B24">
-        <v>4.21</v>
+        <v>30.88</v>
       </c>
       <c r="C24">
-        <v>4.62</v>
+        <v>49.83</v>
       </c>
       <c r="D24">
-        <v>3.51</v>
+        <v>26.04</v>
       </c>
       <c r="E24">
-        <v>3.87</v>
+        <v>27.82</v>
+      </c>
+      <c r="F24">
+        <v>6040704</v>
+      </c>
+      <c r="G24">
+        <v>213534512</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>-0.34</v>
+        <v>-3.06</v>
       </c>
       <c r="J24" s="1">
-        <v>-8.0799999999999997E-2</v>
+        <v>-9.9099999999999994E-2</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>19901231</v>
+        <v>20121231</v>
       </c>
       <c r="B25">
-        <v>5.23</v>
+        <v>27.85</v>
       </c>
       <c r="C25">
-        <v>5.5</v>
+        <v>37.479999999999997</v>
       </c>
       <c r="D25">
-        <v>3.93</v>
+        <v>26.11</v>
       </c>
       <c r="E25">
-        <v>4.21</v>
+        <v>30.27</v>
       </c>
       <c r="F25">
-        <v>1706936</v>
+        <v>1653877</v>
       </c>
       <c r="G25">
-        <v>10404742</v>
+        <v>51749140</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>-1.02</v>
+        <v>2.42</v>
       </c>
       <c r="J25" s="1">
-        <v>-0.19500000000000001</v>
+        <v>8.6900000000000005E-2</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <v>19891231</v>
+        <v>20131231</v>
       </c>
       <c r="B26">
-        <v>5.25</v>
+        <v>30.31</v>
       </c>
       <c r="C26">
-        <v>5.98</v>
+        <v>32.46</v>
       </c>
       <c r="D26">
-        <v>5.2</v>
+        <v>18.2</v>
       </c>
       <c r="E26">
-        <v>5.27</v>
+        <v>20.78</v>
       </c>
       <c r="F26">
-        <v>964718</v>
+        <v>2311082</v>
       </c>
       <c r="G26">
-        <v>3787104</v>
+        <v>54471152</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0.02</v>
+        <v>-9.5299999999999994</v>
       </c>
       <c r="J26" s="1">
-        <v>3.8E-3</v>
+        <v>-0.31440000000000001</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:J26">
+    <sortCondition ref="A2:A26"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
